--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2747710.863842004</v>
+        <v>2853784.461994847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8761932.412745589</v>
+        <v>8777084.327873321</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>178.3252037025447</v>
       </c>
       <c r="X2" t="n">
-        <v>62.45439117602597</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>50.75395328186934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>229.3426408321177</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>201.7472219657257</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>126.1728549862105</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>33.48579464521182</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>69.76293186977652</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>22.86163470508902</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>199.1961742994382</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>81.58403242496145</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>134.4411403334925</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.24923305751756</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1771,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>111.321323070213</v>
       </c>
       <c r="U16" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>72.97607332171654</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>148.1185786361432</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.45472478220964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.29785174158872</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>13.94435783112388</v>
+        <v>45.16086499484972</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>151.6754862233994</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>13.94435783112388</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>60.42721558712923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>33.66638448560004</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>137.7610225486949</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>29.95900124023935</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>98.42683230404793</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>139.9142662664079</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2003.932591804396</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2003.932591804396</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2003.932591804396</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.7875500159902</v>
+        <v>1250.981606255988</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>1250.981606255988</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>1250.981606255988</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>1250.981606255988</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1250.981606255988</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V4" t="n">
-        <v>1695.635314924738</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.218144887777</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="X4" t="n">
-        <v>1178.22859398976</v>
+        <v>1523.040804876154</v>
       </c>
       <c r="Y4" t="n">
-        <v>957.4360148462299</v>
+        <v>1302.248225732624</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140706</v>
+        <v>1452.155307492515</v>
       </c>
       <c r="C5" t="n">
-        <v>926.2736972002947</v>
+        <v>1452.155307492515</v>
       </c>
       <c r="D5" t="n">
-        <v>926.2736972002947</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>540.4854446020504</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>533.5399438528469</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1838.755147556637</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>614.5430248380239</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.9318377313864</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>493.9956548034795</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>343.8790153911438</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>343.8790153911438</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1565.978512125228</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1343.000031319963</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603174</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.372881705156</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.5803025616261</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033366</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>443.0505103572859</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967188</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967188</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1220.876208148498</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>931.4590381115378</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>931.4590381115378</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6989751875257</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349515</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>551.354624631591</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>382.4184417036842</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2417.418403724183</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.563569379087</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2014.962104402028</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1725.886877746226</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1471.202389540339</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.785219503378</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>953.7956686053609</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y13" t="n">
-        <v>733.0030894618308</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5279,7 +5281,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5955,7 @@
         <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>150.8995423128889</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.19898568143</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>3342.537229081858</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,16 +6548,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3260.450525729772</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C31" t="n">
-        <v>3091.514342801865</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.39770338953</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4287.725052464082</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3998.64982580828</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3998.64982580828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3709.23265577132</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3481.243104873302</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>3260.450525729772</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2567.280686761779</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>3062.606292977538</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>526.5658826424041</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>378.6527890600109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>378.6527890600109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.5558870561822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2240.764831803678</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2021.163366826619</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1732.088140170817</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.40365196493</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1187.986481927969</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>959.9969310299521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>739.2043518864219</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2794.50775589162</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4660.57153498421</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4477.716700639115</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4258.115235662056</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3969.040009006254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3714.355520800367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3424.938350763407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3196.948799865389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2976.156220721859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1056.376371837086</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>887.4401889091791</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>737.3235494968434</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>589.4104559144503</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5205084165399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>275.3244091314198</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1238.024836667326</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7630,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3053.935450426146</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>2884.99926749824</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>2734.882628085904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3973.783215334895</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3684.366045297934</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3456.376494399916</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>3235.583915256386</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.591198401904</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878365</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.12601365260409</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>106.0841272570753</v>
       </c>
       <c r="U16" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.1299285698852</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>211.7652975579133</v>
+        <v>180.5487903941874</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>65.7299641038889</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>204.6402955209709</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>252.5180899036441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>43.26526345294974</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>36.41624546988234</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>41.86788054217595</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>112.2233770574202</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>767392.9086696224</v>
+        <v>775117.4144210145</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>767392.9086696224</v>
+        <v>775117.4144210145</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754539.8762584156</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
@@ -26335,25 +26337,25 @@
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="O2" t="n">
-        <v>665895.9447442546</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309554</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309551</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744284</v>
@@ -26439,7 +26441,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744326</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26451,10 +26453,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-847233.5173140478</v>
+        <v>-665852.2328547135</v>
       </c>
       <c r="C6" t="n">
-        <v>481511.2284135452</v>
+        <v>448899.5507212062</v>
       </c>
       <c r="D6" t="n">
-        <v>481511.2284135449</v>
+        <v>288884.0879732062</v>
       </c>
       <c r="E6" t="n">
-        <v>230633.6967212482</v>
+        <v>230633.6967212484</v>
       </c>
       <c r="F6" t="n">
-        <v>556046.158528604</v>
+        <v>556046.1585286034</v>
       </c>
       <c r="G6" t="n">
         <v>556046.1585286035</v>
@@ -26543,25 +26545,25 @@
         <v>556046.1585286036</v>
       </c>
       <c r="J6" t="n">
-        <v>338514.9561313258</v>
+        <v>388440.9807186209</v>
       </c>
       <c r="K6" t="n">
-        <v>556046.1585286034</v>
+        <v>556046.1585286035</v>
       </c>
       <c r="L6" t="n">
+        <v>507752.1885204124</v>
+      </c>
+      <c r="M6" t="n">
+        <v>470991.1305930914</v>
+      </c>
+      <c r="N6" t="n">
         <v>556046.1585286036</v>
       </c>
-      <c r="M6" t="n">
-        <v>470991.1305930915</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>556046.1585286035</v>
       </c>
-      <c r="O6" t="n">
-        <v>556046.1585286033</v>
-      </c>
       <c r="P6" t="n">
-        <v>556046.1585286037</v>
+        <v>556046.1585286036</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757595</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>170.9157650148684</v>
       </c>
       <c r="X2" t="n">
-        <v>307.2767095024431</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>129.078026900068</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>22.79500249171028</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>152.9358196549573</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>284.748870667243</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>111.9352533777194</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>124.899528491961</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>331.8214069155939</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>170.5349263790308</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>85.66278867366638</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>117.6965029903355</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>491.597732526531</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32233,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32312,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>432.1946015714842</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>318.3985571819322</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33266,19 +33268,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33430,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33494,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
-        <v>167.4835451665578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33973,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34447,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>553.5225306839445</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>349.0014880820866</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35647,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>290.0605676494659</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>176.2645232599139</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36914,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
-        <v>25.34951124453946</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2853784.461994847</v>
+        <v>2849688.820490081</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>259.658084792058</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>178.3252037025447</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.75395328186934</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>28.90659665391189</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>201.7472219657257</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>258.4659106891204</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>118.246971040887</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>69.76293186977652</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>279.3751023006571</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>199.1961742994382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>134.4411403334925</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>72.97607332171654</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.1185786361432</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.453391420150774</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.94435783112388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>33.66638448560004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.332751740275</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>325.1920265326617</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>313.5276802973547</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2003.932591804396</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>2003.932591804396</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y2" t="n">
-        <v>2003.932591804396</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
@@ -4409,28 +4409,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1250.981606255988</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C4" t="n">
-        <v>1250.981606255988</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D4" t="n">
-        <v>1250.981606255988</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.981606255988</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.981606255988</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564267</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1607.247537595799</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1607.247537595799</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="U4" t="n">
-        <v>1751.030355774172</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="V4" t="n">
-        <v>1751.030355774172</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="W4" t="n">
-        <v>1751.030355774172</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="X4" t="n">
-        <v>1523.040804876154</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>1302.248225732624</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.155307492515</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="C5" t="n">
-        <v>1452.155307492515</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>1093.74216198791</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>682.7562571983024</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532449</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532449</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532449</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532449</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.894479532449</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.755147556637</v>
+        <v>1479.530414586154</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380239</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694955</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576348</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1565.978512125228</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1343.000031319963</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1053.881693823801</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V7" t="n">
-        <v>1053.881693823801</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="W7" t="n">
-        <v>1053.881693823801</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="X7" t="n">
-        <v>1053.881693823801</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="Y7" t="n">
-        <v>833.0891146802707</v>
+        <v>1058.385646240662</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2455.360493382254</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1220.876208148498</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>931.4590381115378</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>931.4590381115378</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>710.6664589680076</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,37 +5038,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085632</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,7 +5761,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2376.429105670894</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y22" t="n">
-        <v>1166.195182806534</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081858</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153951</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3342.537229081858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3342.537229081858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6685,52 +6685,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7499,13 +7499,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.591198401904</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878365</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>72.4449747012147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.71340154579411</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>177.5728945814938</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>19.50758019582712</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.6402955209709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>252.5180899036441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380336</v>
@@ -26322,40 +26322,40 @@
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403383</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26432,22 +26432,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
@@ -26456,7 +26456,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-665852.2328547135</v>
       </c>
       <c r="C6" t="n">
-        <v>448899.5507212062</v>
+        <v>448899.550721206</v>
       </c>
       <c r="D6" t="n">
-        <v>288884.0879732062</v>
+        <v>288884.0879732065</v>
       </c>
       <c r="E6" t="n">
-        <v>230633.6967212484</v>
+        <v>230286.3174668913</v>
       </c>
       <c r="F6" t="n">
-        <v>556046.1585286034</v>
+        <v>555698.7792742464</v>
       </c>
       <c r="G6" t="n">
-        <v>556046.1585286035</v>
+        <v>555698.7792742468</v>
       </c>
       <c r="H6" t="n">
-        <v>556046.1585286034</v>
+        <v>555698.7792742464</v>
       </c>
       <c r="I6" t="n">
-        <v>556046.1585286036</v>
+        <v>555698.779274247</v>
       </c>
       <c r="J6" t="n">
-        <v>388440.9807186209</v>
+        <v>388093.601464264</v>
       </c>
       <c r="K6" t="n">
-        <v>556046.1585286035</v>
+        <v>555698.7792742467</v>
       </c>
       <c r="L6" t="n">
-        <v>507752.1885204124</v>
+        <v>507404.8092660558</v>
       </c>
       <c r="M6" t="n">
-        <v>470991.1305930914</v>
+        <v>470643.7513387345</v>
       </c>
       <c r="N6" t="n">
-        <v>556046.1585286036</v>
+        <v>555698.7792742465</v>
       </c>
       <c r="O6" t="n">
-        <v>556046.1585286035</v>
+        <v>555698.7792742465</v>
       </c>
       <c r="P6" t="n">
-        <v>556046.1585286036</v>
+        <v>555698.7792742465</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.36046777034738</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>170.9157650148684</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.078026900068</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>72.65097576566173</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>152.9358196549573</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>153.0817920838336</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>61.58500914105025</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>124.899528491961</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>102.5552677716047</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>170.5349263790308</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>117.6965029903355</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31393,10 +31393,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543356</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>468.9317632522997</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>553.5225306839445</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313211</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.97859357997665</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>330.3773834724255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2849688.820490081</v>
+        <v>2851449.350792867</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>198.9430992003366</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>259.658084792058</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.90659665391189</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>145.933677586433</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>258.4659106891204</v>
+        <v>64.98765364255827</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.246971040887</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>14.94526471071614</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1104,7 +1104,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>279.3751023006571</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>232.8521789952017</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S22" t="n">
-        <v>3.453391420150774</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.7871326503968</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>103.1686991936193</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>111.5512144998715</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1059.365742829027</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C2" t="n">
-        <v>690.4032258886157</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>332.1375272818652</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>332.1375272818652</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>325.1920265326617</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>313.5276802973547</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4369,13 +4369,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1445.965582893149</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
@@ -4409,25 +4409,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143493</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4512,25 +4512,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1607.247537595799</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1607.247537595799</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.269056790534</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1384.269056790534</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.269056790534</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W4" t="n">
-        <v>1384.269056790534</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="Y4" t="n">
         <v>1163.476477647004</v>
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1479.530414586154</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C5" t="n">
-        <v>1479.530414586154</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D5" t="n">
-        <v>1479.530414586154</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="E5" t="n">
-        <v>1093.74216198791</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="F5" t="n">
-        <v>682.7562571983024</v>
+        <v>116.8908811564458</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847234</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586154</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y5" t="n">
-        <v>1479.530414586154</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,16 +4649,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>938.9442613508774</v>
+        <v>934.7929217761711</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229705</v>
+        <v>765.8567388482642</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>615.7400994359284</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>467.8270058535353</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>320.9370583556249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V7" t="n">
-        <v>1279.178225384192</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W7" t="n">
-        <v>1279.178225384192</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X7" t="n">
-        <v>1279.178225384192</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y7" t="n">
-        <v>1058.385646240662</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559525</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559525</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="D8" t="n">
-        <v>1514.348043559525</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4950,16 +4950,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5041,34 +5041,34 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,25 +5515,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,7 +5761,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S22" t="n">
-        <v>2376.429105670894</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T22" t="n">
-        <v>2156.827640693835</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1867.752414038033</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1613.067925832146</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1323.650755795185</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>1095.661204897168</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.8686257536381</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>215.8238677453423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8238677453423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>215.8238677453423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6463,22 +6463,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780638</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>240.4465442417432</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X16" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S22" t="n">
-        <v>177.5728945814938</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>19.50758019582712</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>37.1260136526046</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>114.1584408891656</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26435,7 +26435,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26447,7 +26447,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665852.2328547135</v>
+        <v>-665852.2328547132</v>
       </c>
       <c r="C6" t="n">
         <v>448899.550721206</v>
       </c>
       <c r="D6" t="n">
-        <v>288884.0879732065</v>
+        <v>288884.0879732068</v>
       </c>
       <c r="E6" t="n">
-        <v>230286.3174668913</v>
+        <v>230598.9587958126</v>
       </c>
       <c r="F6" t="n">
-        <v>555698.7792742464</v>
+        <v>556011.420603168</v>
       </c>
       <c r="G6" t="n">
-        <v>555698.7792742468</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="H6" t="n">
-        <v>555698.7792742464</v>
+        <v>556011.4206031684</v>
       </c>
       <c r="I6" t="n">
-        <v>555698.779274247</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="J6" t="n">
-        <v>388093.601464264</v>
+        <v>388406.2427931853</v>
       </c>
       <c r="K6" t="n">
-        <v>555698.7792742467</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="L6" t="n">
-        <v>507404.8092660558</v>
+        <v>507717.4505949767</v>
       </c>
       <c r="M6" t="n">
-        <v>470643.7513387345</v>
+        <v>470956.3926676557</v>
       </c>
       <c r="N6" t="n">
-        <v>555698.7792742465</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="O6" t="n">
-        <v>555698.7792742465</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="P6" t="n">
-        <v>555698.7792742465</v>
+        <v>556011.420603168</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,13 +26795,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>183.7907424631439</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.36046777034738</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>72.65097576566173</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>79.77597780260413</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>153.0817920838336</v>
+        <v>346.5600491303957</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.58500914105025</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>151.361335334088</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>102.5552677716047</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>174.0238667465097</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543356</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215487</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>538.1269048795934</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997665</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
